--- a/CombatDice/DiceDistribution.xlsx
+++ b/CombatDice/DiceDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTRPG\campaigns\TTRPG-Residential\CombatDice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD33BF1-B835-4EF3-B10B-D5B9A60F6E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D5DAD2-2E1B-42FD-A781-D7C041085AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2580" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{81D4BFFB-5E94-4A4B-B099-0DC87D30AF44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81D4BFFB-5E94-4A4B-B099-0DC87D30AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="d6 v d12" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,9 +176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -252,8 +249,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -377,8 +376,10 @@
             <c:v>d12</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -502,8 +503,10 @@
             <c:v>d5</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1678,15 +1681,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D96BA71-F4ED-4C45-BC9E-93C653D891C5}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="6" style="1"/>
     <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="6" style="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1746,18 +1750,18 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>COUNTIF($B$2:$G$7,I2)/(6^2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1767,37 +1771,37 @@
         <f t="shared" ref="B3:B7" si="1">B$1+$A3</f>
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J13" si="2">COUNTIF($B$2:$G$7,I3)/(6^2)</f>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f t="shared" ref="M3:M13" si="3">1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1810,37 +1814,37 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1853,37 +1857,37 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1896,37 +1900,37 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1939,37 +1943,37 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="L7" s="1">
         <v>6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1978,14 +1982,14 @@
       <c r="I8" s="1">
         <v>7</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L8" s="1">
         <v>7</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1994,14 +1998,14 @@
       <c r="I9" s="1">
         <v>8</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="L9" s="1">
         <v>8</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2010,14 +2014,14 @@
       <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="L10" s="1">
         <v>9</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2026,14 +2030,14 @@
       <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L11" s="1">
         <v>10</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2042,14 +2046,14 @@
       <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L12" s="1">
         <v>11</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2058,21 +2062,21 @@
       <c r="I13" s="1">
         <v>12</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L13" s="1">
         <v>12</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J13">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B2:G7">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2095,8 +2099,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G7">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2114,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9167386D-FF28-4CFE-96BD-CD4149645F9B}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2170,25 +2174,25 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2"/>
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>COUNTIF($B$2:$E$17,I2)/(6^2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2198,33 +2202,33 @@
         <f t="shared" ref="B3:B17" si="1">$A3+B$1+$F3</f>
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3"/>
       <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J13" si="2">COUNTIF($B$2:$E$17,I3)/(6^2)</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f t="shared" ref="M3:M13" si="3">1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2237,33 +2241,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4"/>
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2276,33 +2280,33 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
       <c r="G5"/>
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2327,21 +2331,21 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
       <c r="G6"/>
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2354,33 +2358,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>2</v>
       </c>
       <c r="G7"/>
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>COUNTIF($B$2:$E$17,I7)/(6^2)</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="L7" s="1">
         <v>6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2393,32 +2397,32 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>7</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L8" s="1">
         <v>7</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2431,32 +2435,32 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
       <c r="I9" s="1">
         <v>8</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L9" s="1">
         <v>8</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2481,20 +2485,20 @@
         <f>$A10+E$1+$F10</f>
         <v>8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="L10" s="1">
         <v>9</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2507,32 +2511,32 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>3</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L11" s="1">
         <v>10</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2545,32 +2549,32 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>3</v>
       </c>
       <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L12" s="1">
         <v>11</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2583,32 +2587,32 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>3</v>
       </c>
       <c r="I13" s="1">
         <v>12</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L13" s="1">
         <v>12</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2633,7 +2637,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2645,19 +2649,19 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2669,19 +2673,19 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2693,65 +2697,38 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A19" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -2776,18 +2753,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
